--- a/My tests.xlsx
+++ b/My tests.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\natal\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{010AE4A7-95C3-4A6C-B991-1E28E690A369}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24278F88-B126-4F89-BDA7-0A278AC4C6CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{190F020D-26A1-4E9F-92EA-60C5FBE36A9E}"/>
   </bookViews>
@@ -381,15 +381,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E8EB9ED-5537-46E9-BBA8-B6D8E32827F5}">
-  <dimension ref="A1:F21"/>
+  <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:F21"/>
+      <selection activeCell="G1" sqref="G1:G1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1">
         <v>1</v>
       </c>
@@ -408,8 +408,11 @@
       <c r="F1">
         <v>20</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>2</v>
       </c>
@@ -428,8 +431,11 @@
       <c r="F2">
         <v>19</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>3</v>
       </c>
@@ -448,8 +454,11 @@
       <c r="F3">
         <v>18</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>4</v>
       </c>
@@ -468,8 +477,11 @@
       <c r="F4">
         <v>17</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>5</v>
       </c>
@@ -488,8 +500,11 @@
       <c r="F5">
         <v>16</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>6</v>
       </c>
@@ -508,8 +523,11 @@
       <c r="F6">
         <v>15</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>7</v>
       </c>
@@ -528,8 +546,11 @@
       <c r="F7">
         <v>14</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G7">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>8</v>
       </c>
@@ -548,8 +569,11 @@
       <c r="F8">
         <v>13</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G8">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>9</v>
       </c>
@@ -568,8 +592,11 @@
       <c r="F9">
         <v>12</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G9">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>10</v>
       </c>
@@ -588,8 +615,11 @@
       <c r="F10">
         <v>11</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>11</v>
       </c>
@@ -608,8 +638,11 @@
       <c r="F11">
         <v>10</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G11">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>12</v>
       </c>
@@ -628,8 +661,11 @@
       <c r="F12">
         <v>9</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>13</v>
       </c>
@@ -648,8 +684,11 @@
       <c r="F13">
         <v>8</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G13">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>14</v>
       </c>
@@ -668,8 +707,11 @@
       <c r="F14">
         <v>7</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G14">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>15</v>
       </c>
@@ -688,8 +730,11 @@
       <c r="F15">
         <v>6</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G15">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>16</v>
       </c>
@@ -708,8 +753,11 @@
       <c r="F16">
         <v>5</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G16">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>17</v>
       </c>
@@ -728,8 +776,11 @@
       <c r="F17">
         <v>4</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G17">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>18</v>
       </c>
@@ -748,8 +799,11 @@
       <c r="F18">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G18">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>19</v>
       </c>
@@ -768,8 +822,11 @@
       <c r="F19">
         <v>2</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G19">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>20</v>
       </c>
@@ -788,8 +845,11 @@
       <c r="F20">
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G20">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
       <c r="C21">
         <v>60</v>
       </c>
